--- a/xlsx/首席执行官_intext.xlsx
+++ b/xlsx/首席执行官_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>首席执行官</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E8%AA%A0</t>
   </si>
   <si>
-    <t>友誠</t>
+    <t>友诚</t>
   </si>
   <si>
     <t>政策_政策_管理_首席执行官</t>
@@ -35,37 +35,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>企業集團</t>
+    <t>企业集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E9%96%A5</t>
   </si>
   <si>
-    <t>財閥</t>
+    <t>财阀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
@@ -83,49 +83,46 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>亞歷山大·漢密爾頓</t>
+    <t>亚历山大·汉密尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國獨立</t>
+    <t>美国独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -137,37 +134,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
   </si>
   <si>
-    <t>股東</t>
+    <t>股东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E9%95%B7</t>
   </si>
   <si>
-    <t>社長</t>
+    <t>社长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
+    <t>总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%BF%90%E8%90%A5%E5%AE%98</t>
@@ -191,33 +188,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
-    <t>董事会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%BF</t>
   </si>
   <si>
-    <t>董事长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E8%A3%81</t>
   </si>
   <si>
-    <t>总裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%B8%9C</t>
   </si>
   <si>
-    <t>股东</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E4%BC%81%E4%B8%9A</t>
   </si>
   <si>
@@ -227,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B0%8F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>中小企業</t>
+    <t>中小企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
@@ -257,19 +242,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99</t>
   </si>
   <si>
-    <t>財務</t>
+    <t>财务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%9D%A3</t>
   </si>
   <si>
-    <t>監督</t>
+    <t>监督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
@@ -287,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>董事會主席</t>
+    <t>董事会主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E5%B1%80%E4%B8%BB%E5%B8%AD</t>
@@ -299,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>行政總裁</t>
+    <t>行政总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
@@ -317,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>董事總經理</t>
+    <t>董事总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -341,25 +326,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>香港電台</t>
+    <t>香港电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
+    <t>非执行董事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
@@ -371,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -383,37 +368,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>資訊總監</t>
+    <t>资讯总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -425,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E9%9A%90%E7%A7%81%E4%BF%9D%E5%AF%86%E5%AE%98</t>
@@ -443,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%8A%80%E6%9C%AF%E5%AE%98</t>
@@ -473,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -1160,10 +1145,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1189,10 +1174,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1218,10 +1203,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1247,10 +1232,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1276,10 +1261,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1305,10 +1290,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1334,10 +1319,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1363,10 +1348,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1392,10 +1377,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1421,10 +1406,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1450,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -1479,10 +1464,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>11</v>
@@ -1508,10 +1493,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1537,10 +1522,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>10</v>
@@ -1566,10 +1551,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1595,10 +1580,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1624,10 +1609,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1653,10 +1638,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1682,10 +1667,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -1711,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1740,10 +1725,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
         <v>8</v>
@@ -1769,10 +1754,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
@@ -1798,10 +1783,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1827,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1856,10 +1841,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1885,10 +1870,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1914,10 +1899,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -1943,10 +1928,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -1972,10 +1957,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2001,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2030,10 +2015,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2059,10 +2044,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2088,10 +2073,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2117,10 +2102,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2146,10 +2131,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2175,10 +2160,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2204,10 +2189,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2233,10 +2218,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2262,10 +2247,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2291,10 +2276,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>46</v>
@@ -2320,10 +2305,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2349,10 +2334,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2378,10 +2363,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2407,10 +2392,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2436,10 +2421,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2465,10 +2450,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2494,10 +2479,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2523,10 +2508,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2552,10 +2537,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2581,10 +2566,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2610,10 +2595,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2639,10 +2624,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2668,10 +2653,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2697,10 +2682,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2726,10 +2711,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2755,10 +2740,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2813,10 +2798,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2842,10 +2827,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2871,10 +2856,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2900,10 +2885,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2929,10 +2914,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
         <v>51</v>
-      </c>
-      <c r="F73" t="s">
-        <v>52</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2958,10 +2943,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2987,10 +2972,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3016,10 +3001,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3045,10 +3030,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3074,10 +3059,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3103,10 +3088,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3132,10 +3117,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3161,10 +3146,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3190,10 +3175,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3219,10 +3204,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
